--- a/stock_historical_data/1mo/RVNL.NS.xlsx
+++ b/stock_historical_data/1mo/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>1</v>
       </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>1</v>
       </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>1</v>
       </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>1</v>
       </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,60 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B63" t="n">
+        <v>425</v>
+      </c>
+      <c r="C63" t="n">
+        <v>425</v>
+      </c>
+      <c r="D63" t="n">
+        <v>425</v>
+      </c>
+      <c r="E63" t="n">
+        <v>425</v>
+      </c>
+      <c r="F63" t="n">
+        <v>425</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I63" t="n">
+        <v>6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>22</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/RVNL.NS.xlsx
+++ b/stock_historical_data/1mo/RVNL.NS.xlsx
@@ -3806,7 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
-      <c r="Q63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/RVNL.NS.xlsx
+++ b/stock_historical_data/1mo/RVNL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B2" t="n">
-        <v>22.04999923706055</v>
+        <v>15.79856356315227</v>
       </c>
       <c r="C2" t="n">
-        <v>29.89999961853027</v>
+        <v>22.40901579370006</v>
       </c>
       <c r="D2" t="n">
-        <v>21.29999923706055</v>
+        <v>15.50753707505875</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22.53796577453613</v>
-      </c>
+        <v>18.33464813232422</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>262284271</v>
+        <v>438121818</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B3" t="n">
-        <v>26.89999961853027</v>
+        <v>22.04999923706055</v>
       </c>
       <c r="C3" t="n">
-        <v>28.35000038146973</v>
+        <v>29.89999961853027</v>
       </c>
       <c r="D3" t="n">
-        <v>25.60000038146973</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="E3" t="n">
-        <v>27.79999923706055</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>23.20575714111328</v>
+        <v>22.53796577453613</v>
       </c>
       <c r="G3" t="n">
-        <v>156939848</v>
+        <v>262284271</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B4" t="n">
-        <v>28.04999923706055</v>
+        <v>26.89999961853027</v>
       </c>
       <c r="C4" t="n">
-        <v>28.95000076293945</v>
+        <v>28.35000038146973</v>
       </c>
       <c r="D4" t="n">
-        <v>22.10000038146973</v>
+        <v>25.60000038146973</v>
       </c>
       <c r="E4" t="n">
-        <v>23.39999961853027</v>
+        <v>27.79999923706055</v>
       </c>
       <c r="F4" t="n">
-        <v>19.53290176391602</v>
+        <v>23.20575714111328</v>
       </c>
       <c r="G4" t="n">
-        <v>99776532</v>
+        <v>156939848</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B5" t="n">
+        <v>28.04999923706055</v>
+      </c>
+      <c r="C5" t="n">
+        <v>28.95000076293945</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.10000038146973</v>
+      </c>
+      <c r="E5" t="n">
         <v>23.39999961853027</v>
       </c>
-      <c r="C5" t="n">
-        <v>26.39999961853027</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>24.70000076293945</v>
-      </c>
       <c r="F5" t="n">
-        <v>20.61806869506836</v>
+        <v>19.53290176391602</v>
       </c>
       <c r="G5" t="n">
-        <v>57797244</v>
+        <v>99776532</v>
       </c>
       <c r="H5" t="n">
         <v>2019</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B6" t="n">
+        <v>23.39999961853027</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E6" t="n">
         <v>24.70000076293945</v>
       </c>
-      <c r="C6" t="n">
-        <v>27.10000038146973</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.35000038146973</v>
-      </c>
-      <c r="E6" t="n">
-        <v>24.10000038146973</v>
-      </c>
       <c r="F6" t="n">
-        <v>20.11722373962402</v>
+        <v>20.61806869506836</v>
       </c>
       <c r="G6" t="n">
-        <v>76803322</v>
+        <v>57797244</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B7" t="n">
-        <v>24.45000076293945</v>
+        <v>24.70000076293945</v>
       </c>
       <c r="C7" t="n">
-        <v>26.85000038146973</v>
+        <v>27.10000038146973</v>
       </c>
       <c r="D7" t="n">
-        <v>22.54999923706055</v>
+        <v>23.35000038146973</v>
       </c>
       <c r="E7" t="n">
-        <v>23.79999923706055</v>
+        <v>24.10000038146973</v>
       </c>
       <c r="F7" t="n">
-        <v>19.94222450256348</v>
+        <v>20.11722373962402</v>
       </c>
       <c r="G7" t="n">
-        <v>144437742</v>
+        <v>76803322</v>
       </c>
       <c r="H7" t="n">
         <v>2019</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B8" t="n">
-        <v>23.85000038146973</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="C8" t="n">
-        <v>25.75</v>
+        <v>26.85000038146973</v>
       </c>
       <c r="D8" t="n">
-        <v>23.75</v>
+        <v>22.54999923706055</v>
       </c>
       <c r="E8" t="n">
-        <v>23.95000076293945</v>
+        <v>23.79999923706055</v>
       </c>
       <c r="F8" t="n">
-        <v>20.06791496276855</v>
+        <v>19.94222450256348</v>
       </c>
       <c r="G8" t="n">
-        <v>124076199</v>
+        <v>144437742</v>
       </c>
       <c r="H8" t="n">
         <v>2019</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>23.85000038146973</v>
       </c>
       <c r="C9" t="n">
-        <v>24.45000076293945</v>
+        <v>25.75</v>
       </c>
       <c r="D9" t="n">
-        <v>22.70000076293945</v>
+        <v>23.75</v>
       </c>
       <c r="E9" t="n">
-        <v>22.95000076293945</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="F9" t="n">
-        <v>19.23000335693359</v>
+        <v>20.06791496276855</v>
       </c>
       <c r="G9" t="n">
-        <v>42466513</v>
+        <v>124076199</v>
       </c>
       <c r="H9" t="n">
         <v>2019</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B10" t="n">
-        <v>23.04999923706055</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>29.29999923706055</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="D10" t="n">
-        <v>22.89999961853027</v>
+        <v>22.70000076293945</v>
       </c>
       <c r="E10" t="n">
-        <v>27.35000038146973</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="F10" t="n">
-        <v>22.91680145263672</v>
+        <v>19.23000335693359</v>
       </c>
       <c r="G10" t="n">
-        <v>194205858</v>
+        <v>42466513</v>
       </c>
       <c r="H10" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B11" t="n">
-        <v>27.20000076293945</v>
+        <v>23.04999923706055</v>
       </c>
       <c r="C11" t="n">
-        <v>28.20000076293945</v>
+        <v>29.29999923706055</v>
       </c>
       <c r="D11" t="n">
-        <v>20.70000076293945</v>
+        <v>22.89999961853027</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>27.35000038146973</v>
       </c>
       <c r="F11" t="n">
-        <v>17.5960807800293</v>
+        <v>22.91680145263672</v>
       </c>
       <c r="G11" t="n">
-        <v>120838135</v>
+        <v>194205858</v>
       </c>
       <c r="H11" t="n">
         <v>2020</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B12" t="n">
-        <v>21.75</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="C12" t="n">
-        <v>21.85000038146973</v>
+        <v>28.20000076293945</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>20.70000076293945</v>
       </c>
       <c r="E12" t="n">
-        <v>12.80000019073486</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>10.7252311706543</v>
+        <v>17.5960807800293</v>
       </c>
       <c r="G12" t="n">
-        <v>106245808</v>
+        <v>120838135</v>
       </c>
       <c r="H12" t="n">
         <v>2020</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B13" t="n">
-        <v>12.69999980926514</v>
+        <v>21.75</v>
       </c>
       <c r="C13" t="n">
-        <v>19.25</v>
+        <v>21.85000038146973</v>
       </c>
       <c r="D13" t="n">
-        <v>12.60000038146973</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>17.04999923706055</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="F13" t="n">
-        <v>14.28634262084961</v>
+        <v>10.7252311706543</v>
       </c>
       <c r="G13" t="n">
-        <v>91308476</v>
+        <v>106245808</v>
       </c>
       <c r="H13" t="n">
         <v>2020</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B14" t="n">
+        <v>12.69999980926514</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.60000038146973</v>
+      </c>
+      <c r="E14" t="n">
         <v>17.04999923706055</v>
       </c>
-      <c r="C14" t="n">
-        <v>19.10000038146973</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16.20000076293945</v>
-      </c>
-      <c r="E14" t="n">
-        <v>17</v>
-      </c>
       <c r="F14" t="n">
-        <v>14.24444675445557</v>
+        <v>14.28634262084961</v>
       </c>
       <c r="G14" t="n">
-        <v>81908026</v>
+        <v>91308476</v>
       </c>
       <c r="H14" t="n">
         <v>2020</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B15" t="n">
-        <v>17.25</v>
+        <v>17.04999923706055</v>
       </c>
       <c r="C15" t="n">
-        <v>21.29999923706055</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="D15" t="n">
-        <v>17.14999961853027</v>
+        <v>16.20000076293945</v>
       </c>
       <c r="E15" t="n">
-        <v>18.85000038146973</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>15.79457664489746</v>
+        <v>14.24444675445557</v>
       </c>
       <c r="G15" t="n">
-        <v>139583175</v>
+        <v>81908026</v>
       </c>
       <c r="H15" t="n">
         <v>2020</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B16" t="n">
-        <v>18.89999961853027</v>
+        <v>17.25</v>
       </c>
       <c r="C16" t="n">
-        <v>21.39999961853027</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="D16" t="n">
-        <v>18.29999923706055</v>
+        <v>17.14999961853027</v>
       </c>
       <c r="E16" t="n">
-        <v>19.20000076293945</v>
+        <v>18.85000038146973</v>
       </c>
       <c r="F16" t="n">
-        <v>16.08784866333008</v>
+        <v>15.79457664489746</v>
       </c>
       <c r="G16" t="n">
-        <v>144704714</v>
+        <v>139583175</v>
       </c>
       <c r="H16" t="n">
         <v>2020</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B17" t="n">
-        <v>19.29999923706055</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="C17" t="n">
-        <v>23.5</v>
+        <v>21.39999961853027</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>18.29999923706055</v>
       </c>
       <c r="E17" t="n">
-        <v>21.54999923706055</v>
+        <v>19.20000076293945</v>
       </c>
       <c r="F17" t="n">
-        <v>18.05693054199219</v>
+        <v>16.08784866333008</v>
       </c>
       <c r="G17" t="n">
-        <v>207608239</v>
+        <v>144704714</v>
       </c>
       <c r="H17" t="n">
         <v>2020</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B18" t="n">
-        <v>21.45000076293945</v>
+        <v>19.29999923706055</v>
       </c>
       <c r="C18" t="n">
-        <v>22.14999961853027</v>
+        <v>23.5</v>
       </c>
       <c r="D18" t="n">
-        <v>18.79999923706055</v>
+        <v>19</v>
       </c>
       <c r="E18" t="n">
-        <v>19.39999961853027</v>
+        <v>21.54999923706055</v>
       </c>
       <c r="F18" t="n">
-        <v>16.25542640686035</v>
+        <v>18.05693054199219</v>
       </c>
       <c r="G18" t="n">
-        <v>66002035</v>
+        <v>207608239</v>
       </c>
       <c r="H18" t="n">
         <v>2020</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B19" t="n">
-        <v>19.45000076293945</v>
+        <v>21.45000076293945</v>
       </c>
       <c r="C19" t="n">
-        <v>19.70000076293945</v>
+        <v>22.14999961853027</v>
       </c>
       <c r="D19" t="n">
-        <v>18.04999923706055</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="E19" t="n">
-        <v>18.20000076293945</v>
+        <v>19.39999961853027</v>
       </c>
       <c r="F19" t="n">
-        <v>15.24993801116943</v>
+        <v>16.25542640686035</v>
       </c>
       <c r="G19" t="n">
-        <v>34016623</v>
+        <v>66002035</v>
       </c>
       <c r="H19" t="n">
         <v>2020</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B20" t="n">
-        <v>18.29999923706055</v>
+        <v>19.45000076293945</v>
       </c>
       <c r="C20" t="n">
-        <v>22.10000038146973</v>
+        <v>19.70000076293945</v>
       </c>
       <c r="D20" t="n">
         <v>18.04999923706055</v>
       </c>
       <c r="E20" t="n">
-        <v>21.85000038146973</v>
+        <v>18.20000076293945</v>
       </c>
       <c r="F20" t="n">
-        <v>18.30830383300781</v>
+        <v>15.24993801116943</v>
       </c>
       <c r="G20" t="n">
-        <v>62646623</v>
+        <v>34016623</v>
       </c>
       <c r="H20" t="n">
         <v>2020</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O20" t="n">
         <v>2</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B21" t="n">
-        <v>22.45000076293945</v>
+        <v>18.29999923706055</v>
       </c>
       <c r="C21" t="n">
-        <v>24.95000076293945</v>
+        <v>22.10000038146973</v>
       </c>
       <c r="D21" t="n">
-        <v>20.60000038146973</v>
+        <v>18.04999923706055</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>21.85000038146973</v>
       </c>
       <c r="F21" t="n">
-        <v>20.10980987548828</v>
+        <v>18.30830383300781</v>
       </c>
       <c r="G21" t="n">
-        <v>208786300</v>
+        <v>62646623</v>
       </c>
       <c r="H21" t="n">
         <v>2020</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,45 +1564,45 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B22" t="n">
-        <v>24.29999923706055</v>
+        <v>22.45000076293945</v>
       </c>
       <c r="C22" t="n">
-        <v>35.54999923706055</v>
+        <v>24.95000076293945</v>
       </c>
       <c r="D22" t="n">
-        <v>23.60000038146973</v>
+        <v>20.60000038146973</v>
       </c>
       <c r="E22" t="n">
-        <v>31.29999923706055</v>
+        <v>24</v>
       </c>
       <c r="F22" t="n">
-        <v>27.49826431274414</v>
+        <v>20.10980987548828</v>
       </c>
       <c r="G22" t="n">
-        <v>599917489</v>
+        <v>208786300</v>
       </c>
       <c r="H22" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,45 +1617,45 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B23" t="n">
-        <v>31.89999961853027</v>
+        <v>24.29999923706055</v>
       </c>
       <c r="C23" t="n">
-        <v>33.15000152587891</v>
+        <v>35.54999923706055</v>
       </c>
       <c r="D23" t="n">
-        <v>28.79999923706055</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="E23" t="n">
-        <v>31.75</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="F23" t="n">
-        <v>27.89361000061035</v>
+        <v>27.49826431274414</v>
       </c>
       <c r="G23" t="n">
-        <v>188554510</v>
+        <v>599917489</v>
       </c>
       <c r="H23" t="n">
         <v>2021</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,45 +1670,45 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>31.89999961853027</v>
       </c>
       <c r="C24" t="n">
-        <v>33.45000076293945</v>
+        <v>33.15000152587891</v>
       </c>
       <c r="D24" t="n">
-        <v>27.25</v>
+        <v>28.79999923706055</v>
       </c>
       <c r="E24" t="n">
-        <v>29.10000038146973</v>
+        <v>31.75</v>
       </c>
       <c r="F24" t="n">
-        <v>25.56548118591309</v>
+        <v>27.89361000061035</v>
       </c>
       <c r="G24" t="n">
-        <v>212975313</v>
+        <v>188554510</v>
       </c>
       <c r="H24" t="n">
         <v>2021</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B25" t="n">
-        <v>29.29999923706055</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>30.60000038146973</v>
+        <v>33.45000076293945</v>
       </c>
       <c r="D25" t="n">
-        <v>26.35000038146973</v>
+        <v>27.25</v>
       </c>
       <c r="E25" t="n">
-        <v>27.20000076293945</v>
+        <v>29.10000038146973</v>
       </c>
       <c r="F25" t="n">
-        <v>23.8962574005127</v>
+        <v>25.56548118591309</v>
       </c>
       <c r="G25" t="n">
-        <v>110939679</v>
+        <v>212975313</v>
       </c>
       <c r="H25" t="n">
         <v>2021</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,45 +1776,45 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B26" t="n">
-        <v>27.04999923706055</v>
+        <v>29.29999923706055</v>
       </c>
       <c r="C26" t="n">
-        <v>30.85000038146973</v>
+        <v>30.60000038146973</v>
       </c>
       <c r="D26" t="n">
-        <v>26.89999961853027</v>
+        <v>26.35000038146973</v>
       </c>
       <c r="E26" t="n">
-        <v>29.5</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="F26" t="n">
-        <v>26.92837142944336</v>
+        <v>23.8962574005127</v>
       </c>
       <c r="G26" t="n">
-        <v>94062596</v>
+        <v>110939679</v>
       </c>
       <c r="H26" t="n">
         <v>2021</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1846,36 +1838,36 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B27" t="n">
-        <v>29.85000038146973</v>
+        <v>27.04999923706055</v>
       </c>
       <c r="C27" t="n">
-        <v>34.5</v>
+        <v>30.85000038146973</v>
       </c>
       <c r="D27" t="n">
-        <v>29.20000076293945</v>
+        <v>26.89999961853027</v>
       </c>
       <c r="E27" t="n">
-        <v>33.70000076293945</v>
+        <v>29.5</v>
       </c>
       <c r="F27" t="n">
-        <v>30.76224327087402</v>
+        <v>26.92837142944336</v>
       </c>
       <c r="G27" t="n">
-        <v>212660301</v>
+        <v>94062596</v>
       </c>
       <c r="H27" t="n">
         <v>2021</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,45 +1882,45 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B28" t="n">
-        <v>34</v>
+        <v>29.85000038146973</v>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="D28" t="n">
-        <v>29.54999923706055</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="E28" t="n">
-        <v>29.60000038146973</v>
+        <v>33.70000076293945</v>
       </c>
       <c r="F28" t="n">
-        <v>27.01965522766113</v>
+        <v>30.76224327087402</v>
       </c>
       <c r="G28" t="n">
-        <v>66970889</v>
+        <v>212660301</v>
       </c>
       <c r="H28" t="n">
         <v>2021</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B29" t="n">
-        <v>29.85000038146973</v>
+        <v>34</v>
       </c>
       <c r="C29" t="n">
-        <v>30.5</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>27.5</v>
+        <v>29.54999923706055</v>
       </c>
       <c r="E29" t="n">
-        <v>28.20000076293945</v>
+        <v>29.60000038146973</v>
       </c>
       <c r="F29" t="n">
-        <v>25.74170112609863</v>
+        <v>27.01965522766113</v>
       </c>
       <c r="G29" t="n">
-        <v>41937943</v>
+        <v>66970889</v>
       </c>
       <c r="H29" t="n">
         <v>2021</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B30" t="n">
-        <v>28.35000038146973</v>
+        <v>29.85000038146973</v>
       </c>
       <c r="C30" t="n">
-        <v>32.70000076293945</v>
+        <v>30.5</v>
       </c>
       <c r="D30" t="n">
-        <v>27.89999961853027</v>
+        <v>27.5</v>
       </c>
       <c r="E30" t="n">
-        <v>30.20000076293945</v>
+        <v>28.20000076293945</v>
       </c>
       <c r="F30" t="n">
-        <v>27.56735229492188</v>
+        <v>25.74170112609863</v>
       </c>
       <c r="G30" t="n">
-        <v>99348644</v>
+        <v>41937943</v>
       </c>
       <c r="H30" t="n">
         <v>2021</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B31" t="n">
-        <v>30.04999923706055</v>
+        <v>28.35000038146973</v>
       </c>
       <c r="C31" t="n">
-        <v>44.79999923706055</v>
+        <v>32.70000076293945</v>
       </c>
       <c r="D31" t="n">
-        <v>29.89999961853027</v>
+        <v>27.89999961853027</v>
       </c>
       <c r="E31" t="n">
-        <v>35.29999923706055</v>
+        <v>30.20000076293945</v>
       </c>
       <c r="F31" t="n">
-        <v>32.22276306152344</v>
+        <v>27.56735229492188</v>
       </c>
       <c r="G31" t="n">
-        <v>510291098</v>
+        <v>99348644</v>
       </c>
       <c r="H31" t="n">
         <v>2021</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,45 +2094,45 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B32" t="n">
-        <v>35.90000152587891</v>
+        <v>30.04999923706055</v>
       </c>
       <c r="C32" t="n">
-        <v>40.54999923706055</v>
+        <v>44.79999923706055</v>
       </c>
       <c r="D32" t="n">
-        <v>32.75</v>
+        <v>29.89999961853027</v>
       </c>
       <c r="E32" t="n">
-        <v>33.45000076293945</v>
+        <v>35.29999923706055</v>
       </c>
       <c r="F32" t="n">
-        <v>30.53403854370117</v>
+        <v>32.22276306152344</v>
       </c>
       <c r="G32" t="n">
-        <v>131784192</v>
+        <v>510291098</v>
       </c>
       <c r="H32" t="n">
         <v>2021</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,45 +2147,45 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B33" t="n">
-        <v>34.95000076293945</v>
+        <v>35.90000152587891</v>
       </c>
       <c r="C33" t="n">
-        <v>37.40000152587891</v>
+        <v>40.54999923706055</v>
       </c>
       <c r="D33" t="n">
-        <v>32.79999923706055</v>
+        <v>32.75</v>
       </c>
       <c r="E33" t="n">
-        <v>34.75</v>
+        <v>33.45000076293945</v>
       </c>
       <c r="F33" t="n">
-        <v>32.14610290527344</v>
+        <v>30.53403854370117</v>
       </c>
       <c r="G33" t="n">
-        <v>71612303</v>
+        <v>131784192</v>
       </c>
       <c r="H33" t="n">
         <v>2021</v>
       </c>
       <c r="I33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B34" t="n">
-        <v>35</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="C34" t="n">
-        <v>39.29999923706055</v>
+        <v>37.40000152587891</v>
       </c>
       <c r="D34" t="n">
-        <v>34.34999847412109</v>
+        <v>32.79999923706055</v>
       </c>
       <c r="E34" t="n">
-        <v>36</v>
+        <v>34.75</v>
       </c>
       <c r="F34" t="n">
-        <v>33.30244064331055</v>
+        <v>32.14610290527344</v>
       </c>
       <c r="G34" t="n">
-        <v>118391891</v>
+        <v>71612303</v>
       </c>
       <c r="H34" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B35" t="n">
-        <v>36.75</v>
+        <v>35</v>
       </c>
       <c r="C35" t="n">
-        <v>37.34999847412109</v>
+        <v>39.29999923706055</v>
       </c>
       <c r="D35" t="n">
-        <v>29</v>
+        <v>34.34999847412109</v>
       </c>
       <c r="E35" t="n">
-        <v>30.95000076293945</v>
+        <v>36</v>
       </c>
       <c r="F35" t="n">
-        <v>28.63084602355957</v>
+        <v>33.30244064331055</v>
       </c>
       <c r="G35" t="n">
-        <v>71949369</v>
+        <v>118391891</v>
       </c>
       <c r="H35" t="n">
         <v>2022</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,45 +2306,45 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B36" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="C36" t="n">
+        <v>37.34999847412109</v>
+      </c>
+      <c r="D36" t="n">
+        <v>29</v>
+      </c>
+      <c r="E36" t="n">
         <v>30.95000076293945</v>
       </c>
-      <c r="C36" t="n">
-        <v>36.70000076293945</v>
-      </c>
-      <c r="D36" t="n">
-        <v>29.70000076293945</v>
-      </c>
-      <c r="E36" t="n">
-        <v>32.70000076293945</v>
-      </c>
       <c r="F36" t="n">
-        <v>30.24971580505371</v>
+        <v>28.63084602355957</v>
       </c>
       <c r="G36" t="n">
-        <v>72603653</v>
+        <v>71949369</v>
       </c>
       <c r="H36" t="n">
         <v>2022</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,45 +2359,45 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B37" t="n">
-        <v>32.79999923706055</v>
+        <v>30.95000076293945</v>
       </c>
       <c r="C37" t="n">
-        <v>37.40000152587891</v>
+        <v>36.70000076293945</v>
       </c>
       <c r="D37" t="n">
-        <v>32.75</v>
+        <v>29.70000076293945</v>
       </c>
       <c r="E37" t="n">
-        <v>33.65000152587891</v>
+        <v>32.70000076293945</v>
       </c>
       <c r="F37" t="n">
-        <v>32.55124282836914</v>
+        <v>30.24971580505371</v>
       </c>
       <c r="G37" t="n">
-        <v>90568880</v>
+        <v>72603653</v>
       </c>
       <c r="H37" t="n">
         <v>2022</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2434,31 +2426,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B38" t="n">
-        <v>33.40000152587891</v>
+        <v>32.79999923706055</v>
       </c>
       <c r="C38" t="n">
-        <v>33.90000152587891</v>
+        <v>37.40000152587891</v>
       </c>
       <c r="D38" t="n">
-        <v>30.20000076293945</v>
+        <v>32.75</v>
       </c>
       <c r="E38" t="n">
-        <v>32.40000152587891</v>
+        <v>33.65000152587891</v>
       </c>
       <c r="F38" t="n">
-        <v>31.34205436706543</v>
+        <v>32.55124282836914</v>
       </c>
       <c r="G38" t="n">
-        <v>27023311</v>
+        <v>90568880</v>
       </c>
       <c r="H38" t="n">
         <v>2022</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2487,31 +2479,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B39" t="n">
-        <v>33.45000076293945</v>
+        <v>33.40000152587891</v>
       </c>
       <c r="C39" t="n">
-        <v>34</v>
+        <v>33.90000152587891</v>
       </c>
       <c r="D39" t="n">
-        <v>29.04999923706055</v>
+        <v>30.20000076293945</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>32.40000152587891</v>
       </c>
       <c r="F39" t="n">
-        <v>29.02042198181152</v>
+        <v>31.34205436706543</v>
       </c>
       <c r="G39" t="n">
-        <v>27973459</v>
+        <v>27023311</v>
       </c>
       <c r="H39" t="n">
         <v>2022</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,45 +2518,45 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B40" t="n">
-        <v>30.10000038146973</v>
+        <v>33.45000076293945</v>
       </c>
       <c r="C40" t="n">
-        <v>32.34999847412109</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
-        <v>29.79999923706055</v>
+        <v>29.04999923706055</v>
       </c>
       <c r="E40" t="n">
-        <v>30.95000076293945</v>
+        <v>30</v>
       </c>
       <c r="F40" t="n">
-        <v>29.93940162658691</v>
+        <v>29.02042198181152</v>
       </c>
       <c r="G40" t="n">
-        <v>23280470</v>
+        <v>27973459</v>
       </c>
       <c r="H40" t="n">
         <v>2022</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,45 +2571,45 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B41" t="n">
-        <v>31.10000038146973</v>
+        <v>30.10000038146973</v>
       </c>
       <c r="C41" t="n">
-        <v>33.40000152587891</v>
+        <v>32.34999847412109</v>
       </c>
       <c r="D41" t="n">
-        <v>30.54999923706055</v>
+        <v>29.79999923706055</v>
       </c>
       <c r="E41" t="n">
-        <v>32.90000152587891</v>
+        <v>30.95000076293945</v>
       </c>
       <c r="F41" t="n">
-        <v>31.82572937011719</v>
+        <v>29.93940162658691</v>
       </c>
       <c r="G41" t="n">
-        <v>54311334</v>
+        <v>23280470</v>
       </c>
       <c r="H41" t="n">
         <v>2022</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2646,31 +2638,31 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B42" t="n">
-        <v>32.79999923706055</v>
+        <v>31.10000038146973</v>
       </c>
       <c r="C42" t="n">
-        <v>36.70000076293945</v>
+        <v>33.40000152587891</v>
       </c>
       <c r="D42" t="n">
-        <v>32.54999923706055</v>
+        <v>30.54999923706055</v>
       </c>
       <c r="E42" t="n">
-        <v>33.70000076293945</v>
+        <v>32.90000152587891</v>
       </c>
       <c r="F42" t="n">
-        <v>32.59960556030273</v>
+        <v>31.82572937011719</v>
       </c>
       <c r="G42" t="n">
-        <v>98372393</v>
+        <v>54311334</v>
       </c>
       <c r="H42" t="n">
         <v>2022</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2699,31 +2691,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B43" t="n">
-        <v>34.04999923706055</v>
+        <v>32.79999923706055</v>
       </c>
       <c r="C43" t="n">
-        <v>42.04999923706055</v>
+        <v>36.70000076293945</v>
       </c>
       <c r="D43" t="n">
-        <v>33.90000152587891</v>
+        <v>32.54999923706055</v>
       </c>
       <c r="E43" t="n">
-        <v>40</v>
+        <v>33.70000076293945</v>
       </c>
       <c r="F43" t="n">
-        <v>38.97347640991211</v>
+        <v>32.59960556030273</v>
       </c>
       <c r="G43" t="n">
-        <v>227355346</v>
+        <v>98372393</v>
       </c>
       <c r="H43" t="n">
         <v>2022</v>
       </c>
       <c r="I43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,45 +2730,45 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B44" t="n">
-        <v>40.09999847412109</v>
+        <v>34.04999923706055</v>
       </c>
       <c r="C44" t="n">
-        <v>84.09999847412109</v>
+        <v>42.04999923706055</v>
       </c>
       <c r="D44" t="n">
-        <v>39.25</v>
+        <v>33.90000152587891</v>
       </c>
       <c r="E44" t="n">
-        <v>74.09999847412109</v>
+        <v>40</v>
       </c>
       <c r="F44" t="n">
-        <v>72.19835662841797</v>
+        <v>38.97347640991211</v>
       </c>
       <c r="G44" t="n">
-        <v>1328501955</v>
+        <v>227355346</v>
       </c>
       <c r="H44" t="n">
         <v>2022</v>
       </c>
       <c r="I44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,45 +2783,45 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B45" t="n">
-        <v>73.59999847412109</v>
+        <v>40.09999847412109</v>
       </c>
       <c r="C45" t="n">
-        <v>77.80000305175781</v>
+        <v>84.09999847412109</v>
       </c>
       <c r="D45" t="n">
-        <v>60.20000076293945</v>
+        <v>39.25</v>
       </c>
       <c r="E45" t="n">
-        <v>68.25</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="F45" t="n">
-        <v>66.49848937988281</v>
+        <v>72.19835662841797</v>
       </c>
       <c r="G45" t="n">
-        <v>364472981</v>
+        <v>1328501955</v>
       </c>
       <c r="H45" t="n">
         <v>2022</v>
       </c>
       <c r="I45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B46" t="n">
+        <v>73.59999847412109</v>
+      </c>
+      <c r="C46" t="n">
+        <v>77.80000305175781</v>
+      </c>
+      <c r="D46" t="n">
+        <v>60.20000076293945</v>
+      </c>
+      <c r="E46" t="n">
         <v>68.25</v>
       </c>
-      <c r="C46" t="n">
-        <v>81.75</v>
-      </c>
-      <c r="D46" t="n">
-        <v>67.80000305175781</v>
-      </c>
-      <c r="E46" t="n">
-        <v>76.09999847412109</v>
-      </c>
       <c r="F46" t="n">
-        <v>74.14703369140625</v>
+        <v>66.49848937988281</v>
       </c>
       <c r="G46" t="n">
-        <v>237871095</v>
+        <v>364472981</v>
       </c>
       <c r="H46" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2911,31 +2903,31 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B47" t="n">
-        <v>77.90000152587891</v>
+        <v>68.25</v>
       </c>
       <c r="C47" t="n">
-        <v>79.44999694824219</v>
+        <v>81.75</v>
       </c>
       <c r="D47" t="n">
-        <v>57.15000152587891</v>
+        <v>67.80000305175781</v>
       </c>
       <c r="E47" t="n">
-        <v>57.45000076293945</v>
+        <v>76.09999847412109</v>
       </c>
       <c r="F47" t="n">
-        <v>55.97565078735352</v>
+        <v>74.14703369140625</v>
       </c>
       <c r="G47" t="n">
-        <v>152324895</v>
+        <v>237871095</v>
       </c>
       <c r="H47" t="n">
         <v>2023</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B48" t="n">
-        <v>57.5</v>
+        <v>77.90000152587891</v>
       </c>
       <c r="C48" t="n">
-        <v>69.69999694824219</v>
+        <v>79.44999694824219</v>
       </c>
       <c r="D48" t="n">
-        <v>56.04999923706055</v>
+        <v>57.15000152587891</v>
       </c>
       <c r="E48" t="n">
-        <v>68.59999847412109</v>
+        <v>57.45000076293945</v>
       </c>
       <c r="F48" t="n">
-        <v>66.83950805664062</v>
+        <v>55.97565078735352</v>
       </c>
       <c r="G48" t="n">
-        <v>322619672</v>
+        <v>152324895</v>
       </c>
       <c r="H48" t="n">
         <v>2023</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,45 +2995,45 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B49" t="n">
-        <v>70</v>
+        <v>57.5</v>
       </c>
       <c r="C49" t="n">
-        <v>114.6999969482422</v>
+        <v>69.69999694824219</v>
       </c>
       <c r="D49" t="n">
-        <v>70</v>
+        <v>56.04999923706055</v>
       </c>
       <c r="E49" t="n">
-        <v>107.5500030517578</v>
+        <v>68.59999847412109</v>
       </c>
       <c r="F49" t="n">
-        <v>104.7899322509766</v>
+        <v>66.83950805664062</v>
       </c>
       <c r="G49" t="n">
-        <v>1210577285</v>
+        <v>322619672</v>
       </c>
       <c r="H49" t="n">
         <v>2023</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,45 +3048,45 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B50" t="n">
+        <v>70</v>
+      </c>
+      <c r="C50" t="n">
+        <v>114.6999969482422</v>
+      </c>
+      <c r="D50" t="n">
+        <v>70</v>
+      </c>
+      <c r="E50" t="n">
         <v>107.5500030517578</v>
       </c>
-      <c r="C50" t="n">
-        <v>144.3999938964844</v>
-      </c>
-      <c r="D50" t="n">
-        <v>107.5500030517578</v>
-      </c>
-      <c r="E50" t="n">
-        <v>120</v>
-      </c>
       <c r="F50" t="n">
-        <v>119.7387390136719</v>
+        <v>104.7899322509766</v>
       </c>
       <c r="G50" t="n">
-        <v>849942728</v>
+        <v>1210577285</v>
       </c>
       <c r="H50" t="n">
         <v>2023</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3123,31 +3115,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B51" t="n">
-        <v>122.9499969482422</v>
+        <v>107.5500030517578</v>
       </c>
       <c r="C51" t="n">
-        <v>132.1999969482422</v>
+        <v>144.3999938964844</v>
       </c>
       <c r="D51" t="n">
-        <v>116.0999984741211</v>
+        <v>107.5500030517578</v>
       </c>
       <c r="E51" t="n">
-        <v>121.9000015258789</v>
+        <v>120</v>
       </c>
       <c r="F51" t="n">
-        <v>121.6346054077148</v>
+        <v>119.7387390136719</v>
       </c>
       <c r="G51" t="n">
-        <v>332407047</v>
+        <v>849942728</v>
       </c>
       <c r="H51" t="n">
         <v>2023</v>
       </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3176,31 +3168,31 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B52" t="n">
-        <v>122.9000015258789</v>
+        <v>122.9499969482422</v>
       </c>
       <c r="C52" t="n">
-        <v>146.6499938964844</v>
+        <v>132.1999969482422</v>
       </c>
       <c r="D52" t="n">
-        <v>117.0500030517578</v>
+        <v>116.0999984741211</v>
       </c>
       <c r="E52" t="n">
-        <v>124.0999984741211</v>
+        <v>121.9000015258789</v>
       </c>
       <c r="F52" t="n">
-        <v>123.8298110961914</v>
+        <v>121.6346054077148</v>
       </c>
       <c r="G52" t="n">
-        <v>628962954</v>
+        <v>332407047</v>
       </c>
       <c r="H52" t="n">
         <v>2023</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,45 +3207,45 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B53" t="n">
-        <v>125.9000015258789</v>
+        <v>122.9000015258789</v>
       </c>
       <c r="C53" t="n">
-        <v>132.8500061035156</v>
+        <v>146.6499938964844</v>
       </c>
       <c r="D53" t="n">
-        <v>121.75</v>
+        <v>117.0500030517578</v>
       </c>
       <c r="E53" t="n">
-        <v>131.0500030517578</v>
+        <v>124.0999984741211</v>
       </c>
       <c r="F53" t="n">
-        <v>130.7646789550781</v>
+        <v>123.8298110961914</v>
       </c>
       <c r="G53" t="n">
-        <v>450764020</v>
+        <v>628962954</v>
       </c>
       <c r="H53" t="n">
         <v>2023</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,45 +3260,45 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B54" t="n">
-        <v>131.8000030517578</v>
+        <v>125.9000015258789</v>
       </c>
       <c r="C54" t="n">
-        <v>199.25</v>
+        <v>132.8500061035156</v>
       </c>
       <c r="D54" t="n">
-        <v>130.6000061035156</v>
+        <v>121.75</v>
       </c>
       <c r="E54" t="n">
-        <v>169.4499969482422</v>
+        <v>131.0500030517578</v>
       </c>
       <c r="F54" t="n">
-        <v>169.0810699462891</v>
+        <v>130.7646789550781</v>
       </c>
       <c r="G54" t="n">
-        <v>1416124882</v>
+        <v>450764020</v>
       </c>
       <c r="H54" t="n">
         <v>2023</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B55" t="n">
+        <v>131.8000030517578</v>
+      </c>
+      <c r="C55" t="n">
+        <v>199.25</v>
+      </c>
+      <c r="D55" t="n">
+        <v>130.6000061035156</v>
+      </c>
+      <c r="E55" t="n">
         <v>169.4499969482422</v>
       </c>
-      <c r="C55" t="n">
-        <v>176.8999938964844</v>
-      </c>
-      <c r="D55" t="n">
-        <v>142.1499938964844</v>
-      </c>
-      <c r="E55" t="n">
-        <v>154.1499938964844</v>
-      </c>
       <c r="F55" t="n">
-        <v>154.1499938964844</v>
+        <v>169.0810699462891</v>
       </c>
       <c r="G55" t="n">
-        <v>339973245</v>
+        <v>1416124882</v>
       </c>
       <c r="H55" t="n">
         <v>2023</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B56" t="n">
-        <v>155</v>
+        <v>169.4499969482422</v>
       </c>
       <c r="C56" t="n">
-        <v>171.1000061035156</v>
+        <v>176.8999938964844</v>
       </c>
       <c r="D56" t="n">
-        <v>152.6000061035156</v>
+        <v>142.1499938964844</v>
       </c>
       <c r="E56" t="n">
-        <v>164.1999969482422</v>
+        <v>154.1499938964844</v>
       </c>
       <c r="F56" t="n">
-        <v>164.1999969482422</v>
+        <v>154.1499938964844</v>
       </c>
       <c r="G56" t="n">
-        <v>246847297</v>
+        <v>339973245</v>
       </c>
       <c r="H56" t="n">
         <v>2023</v>
       </c>
       <c r="I56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3441,31 +3433,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B57" t="n">
-        <v>164.8500061035156</v>
+        <v>155</v>
       </c>
       <c r="C57" t="n">
-        <v>187.8999938964844</v>
+        <v>171.1000061035156</v>
       </c>
       <c r="D57" t="n">
-        <v>164.25</v>
+        <v>152.6000061035156</v>
       </c>
       <c r="E57" t="n">
-        <v>181.5500030517578</v>
+        <v>164.1999969482422</v>
       </c>
       <c r="F57" t="n">
-        <v>181.5500030517578</v>
+        <v>164.1999969482422</v>
       </c>
       <c r="G57" t="n">
-        <v>435228644</v>
+        <v>246847297</v>
       </c>
       <c r="H57" t="n">
         <v>2023</v>
       </c>
       <c r="I57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3494,31 +3486,31 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B58" t="n">
-        <v>181.8999938964844</v>
+        <v>164.8500061035156</v>
       </c>
       <c r="C58" t="n">
-        <v>345.5</v>
+        <v>187.8999938964844</v>
       </c>
       <c r="D58" t="n">
-        <v>177.5</v>
+        <v>164.25</v>
       </c>
       <c r="E58" t="n">
-        <v>308.25</v>
+        <v>181.5500030517578</v>
       </c>
       <c r="F58" t="n">
-        <v>308.25</v>
+        <v>181.5500030517578</v>
       </c>
       <c r="G58" t="n">
-        <v>1088729201</v>
+        <v>435228644</v>
       </c>
       <c r="H58" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,98 +3525,98 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B59" t="n">
-        <v>312</v>
+        <v>181.8999938964844</v>
       </c>
       <c r="C59" t="n">
-        <v>318.8999938964844</v>
+        <v>345.5</v>
       </c>
       <c r="D59" t="n">
-        <v>223.5</v>
+        <v>177.5</v>
       </c>
       <c r="E59" t="n">
-        <v>244.25</v>
+        <v>308.25</v>
       </c>
       <c r="F59" t="n">
-        <v>244.25</v>
+        <v>308.25</v>
       </c>
       <c r="G59" t="n">
-        <v>457279427</v>
+        <v>1088729201</v>
       </c>
       <c r="H59" t="n">
         <v>2024</v>
       </c>
       <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
         <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>5</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B60" t="n">
-        <v>245.3999938964844</v>
+        <v>312</v>
       </c>
       <c r="C60" t="n">
-        <v>267.8500061035156</v>
+        <v>318.8999938964844</v>
       </c>
       <c r="D60" t="n">
-        <v>213.0500030517578</v>
+        <v>223.5</v>
       </c>
       <c r="E60" t="n">
-        <v>252.8999938964844</v>
+        <v>244.25</v>
       </c>
       <c r="F60" t="n">
-        <v>252.8999938964844</v>
+        <v>244.25</v>
       </c>
       <c r="G60" t="n">
-        <v>322217635</v>
+        <v>457279427</v>
       </c>
       <c r="H60" t="n">
         <v>2024</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3653,31 +3645,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B61" t="n">
-        <v>261</v>
+        <v>245.3999938964844</v>
       </c>
       <c r="C61" t="n">
-        <v>296.2999877929688</v>
+        <v>267.8500061035156</v>
       </c>
       <c r="D61" t="n">
-        <v>245</v>
+        <v>213.0500030517578</v>
       </c>
       <c r="E61" t="n">
-        <v>286.3999938964844</v>
+        <v>252.8999938964844</v>
       </c>
       <c r="F61" t="n">
-        <v>286.3999938964844</v>
+        <v>252.8999938964844</v>
       </c>
       <c r="G61" t="n">
-        <v>271765340</v>
+        <v>322217635</v>
       </c>
       <c r="H61" t="n">
         <v>2024</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3706,31 +3698,31 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B62" t="n">
+        <v>261</v>
+      </c>
+      <c r="C62" t="n">
+        <v>296.2999877929688</v>
+      </c>
+      <c r="D62" t="n">
+        <v>245</v>
+      </c>
+      <c r="E62" t="n">
         <v>286.3999938964844</v>
       </c>
-      <c r="C62" t="n">
-        <v>399.8999938964844</v>
-      </c>
-      <c r="D62" t="n">
-        <v>249.8500061035156</v>
-      </c>
-      <c r="E62" t="n">
-        <v>381.7000122070312</v>
-      </c>
       <c r="F62" t="n">
-        <v>381.7000122070312</v>
+        <v>286.3999938964844</v>
       </c>
       <c r="G62" t="n">
-        <v>675634396</v>
+        <v>271765340</v>
       </c>
       <c r="H62" t="n">
         <v>2024</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -3754,61 +3746,519 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B63" t="n">
-        <v>425</v>
+        <v>286.3999938964844</v>
       </c>
       <c r="C63" t="n">
-        <v>425</v>
+        <v>399.8999938964844</v>
       </c>
       <c r="D63" t="n">
-        <v>312.25</v>
+        <v>249.8500061035156</v>
       </c>
       <c r="E63" t="n">
-        <v>374.5499877929688</v>
+        <v>381.7000122070312</v>
       </c>
       <c r="F63" t="n">
-        <v>374.5499877929688</v>
+        <v>381.7000122070312</v>
       </c>
       <c r="G63" t="n">
-        <v>281289842</v>
+        <v>675634396</v>
       </c>
       <c r="H63" t="n">
         <v>2024</v>
       </c>
       <c r="I63" t="n">
+        <v>5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>18</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B64" t="n">
+        <v>425</v>
+      </c>
+      <c r="C64" t="n">
+        <v>425</v>
+      </c>
+      <c r="D64" t="n">
+        <v>312.25</v>
+      </c>
+      <c r="E64" t="n">
+        <v>374.5499877929688</v>
+      </c>
+      <c r="F64" t="n">
+        <v>374.5499877929688</v>
+      </c>
+      <c r="G64" t="n">
+        <v>281289842</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I64" t="n">
         <v>6</v>
       </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
         <v>22</v>
       </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
-      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B65" t="n">
+        <v>415.3833223946968</v>
+      </c>
+      <c r="C65" t="n">
+        <v>644.4916297107167</v>
+      </c>
+      <c r="D65" t="n">
+        <v>402.7325471788459</v>
+      </c>
+      <c r="E65" t="n">
+        <v>599.1680297851562</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>1308512588</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>27</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B66" t="n">
+        <v>602.9034771347281</v>
+      </c>
+      <c r="C66" t="n">
+        <v>612.6156768903061</v>
+      </c>
+      <c r="D66" t="n">
+        <v>512.0072486530363</v>
+      </c>
+      <c r="E66" t="n">
+        <v>605.045166015625</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>522899748</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>31</v>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B67" t="n">
+        <v>608.1331695316458</v>
+      </c>
+      <c r="C67" t="n">
+        <v>617.0982776819894</v>
+      </c>
+      <c r="D67" t="n">
+        <v>499.2569238210671</v>
+      </c>
+      <c r="E67" t="n">
+        <v>529.3896484375</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>171192205</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>35</v>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B68" t="n">
+        <v>530.5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>533.5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>408.1499938964844</v>
+      </c>
+      <c r="E68" t="n">
+        <v>471.7999877929688</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>152417217</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>40</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B69" t="n">
+        <v>471</v>
+      </c>
+      <c r="C69" t="n">
+        <v>486.7000122070312</v>
+      </c>
+      <c r="D69" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>435.8500061035156</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>99669463</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I69" t="n">
+        <v>11</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>44</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B70" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>404.3999938964844</v>
+      </c>
+      <c r="E70" t="n">
+        <v>422.7000122070312</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>93952148</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>48</v>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B71" t="n">
+        <v>425.6499938964844</v>
+      </c>
+      <c r="C71" t="n">
+        <v>481.5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>476.2999877929688</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>178253346</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B72" t="n">
+        <v>485</v>
+      </c>
+      <c r="C72" t="n">
+        <v>501.7999877929688</v>
+      </c>
+      <c r="D72" t="n">
+        <v>325.1499938964844</v>
+      </c>
+      <c r="E72" t="n">
+        <v>332.3999938964844</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>309580440</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>5</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B73" t="n">
+        <v>333.4500122070312</v>
+      </c>
+      <c r="C73" t="n">
+        <v>383.9500122070312</v>
+      </c>
+      <c r="D73" t="n">
+        <v>310.2999877929688</v>
+      </c>
+      <c r="E73" t="n">
+        <v>351.8500061035156</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>229174609</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>9</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
